--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ИД-1" sheetId="1" r:id="rId1"/>
-    <sheet name="ПИ-1" sheetId="2" r:id="rId2"/>
+    <sheet name="фмфи-б19пио" sheetId="2" r:id="rId2"/>
     <sheet name="фмфи-б18ио" sheetId="3" r:id="rId3"/>
     <sheet name="фмфи-б18пио" sheetId="4" r:id="rId4"/>
-    <sheet name="И-3" sheetId="5" r:id="rId5"/>
-    <sheet name="ПИ-3" sheetId="6" r:id="rId6"/>
-    <sheet name="И-4" sheetId="7" r:id="rId7"/>
+    <sheet name="фмфи-б17ио" sheetId="5" r:id="rId5"/>
+    <sheet name="фмфи-б17пио" sheetId="6" r:id="rId6"/>
+    <sheet name="фмфи-б16ио" sheetId="7" r:id="rId7"/>
     <sheet name="ИИ-4" sheetId="8" r:id="rId8"/>
     <sheet name="ИИ-5" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
   <si>
     <t>Понедельник</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Суббота</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1419,7 @@
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -1493,7 +1496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1504,7 +1507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1513,63 +1516,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1618,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1649,7 @@
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,8 +1665,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -1659,7 +1678,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>42</v>
@@ -1670,7 +1689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1683,7 +1702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1717,7 +1736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -1726,63 +1745,76 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2080,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2127,7 @@
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,14 +2144,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>73</v>
@@ -2128,7 +2160,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>74</v>
@@ -2139,7 +2171,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -2154,7 +2186,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -2169,7 +2201,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -2182,7 +2214,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>78</v>
@@ -2193,56 +2225,69 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2305,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2365,7 @@
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2348,7 +2393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2359,7 +2404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2368,7 +2413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -2379,7 +2424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2392,7 +2437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
@@ -2405,7 +2450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
@@ -2414,56 +2459,69 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2498,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,7 +2570,7 @@
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>102</v>
@@ -2538,7 +2596,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>100</v>
       </c>
@@ -2551,7 +2609,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>101</v>
       </c>
@@ -2564,21 +2622,21 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2589,7 +2647,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2600,56 +2658,69 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2719,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2805,7 @@
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -2760,7 +2831,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -2771,7 +2842,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -2784,7 +2855,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>113</v>
@@ -2795,7 +2866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>114</v>
@@ -2806,7 +2877,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2815,63 +2886,76 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2941,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +3039,7 @@
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2972,21 +3056,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>122</v>
@@ -2999,7 +3083,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>123</v>
@@ -3010,7 +3094,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>124</v>
@@ -3021,70 +3105,83 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
